--- a/trunk/Document/Tai chinh/Tai chinh.xlsx
+++ b/trunk/Document/Tai chinh/Tai chinh.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Bảng kê tình hình thu - chi của dự án</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>còn lại</t>
+  </si>
+  <si>
+    <t>Mua bảng viết</t>
+  </si>
+  <si>
+    <t>Team buiding(Cafe)</t>
   </si>
 </sst>
 </file>
@@ -202,13 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,12 +220,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,15 +542,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="18.75">
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -552,493 +558,517 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4">
+      <c r="E10" s="12"/>
+      <c r="F10" s="3">
         <v>201000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>40422</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>200000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>200000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>200000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>200000</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>200000</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <f>SUM(I10:M10)</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>40246</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4">
+      <c r="E11" s="12"/>
+      <c r="F11" s="3">
         <v>124000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>40452</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
         <f t="shared" ref="N11:N25" si="0">SUM(I11:M11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>40246</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4">
+      <c r="E12" s="12"/>
+      <c r="F12" s="3">
         <v>200000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>40483</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>40277</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
+      <c r="E13" s="12"/>
+      <c r="F13" s="3">
         <v>145000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>40513</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="6">
+      <c r="C14" s="6">
+        <v>40338</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H14" s="4">
         <v>40544</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="6">
+      <c r="C15" s="6">
+        <v>40338</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="3">
+        <v>162000</v>
+      </c>
+      <c r="H15" s="4">
         <v>40575</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="4">
         <v>40603</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="6">
+      <c r="C17" s="3"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="4">
         <v>40634</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="6">
+      <c r="C18" s="3"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="4">
         <v>40664</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="6">
+      <c r="C19" s="3"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="4">
         <v>40695</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="6">
+      <c r="C20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="4">
         <v>40725</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="6">
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="4">
         <v>40756</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="6">
+      <c r="C22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="4">
         <v>40787</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="6">
+      <c r="C23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="4">
         <v>40817</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="6">
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="4">
         <v>40848</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="6">
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="4">
         <v>40878</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <f>SUM(N:N)</f>
         <v>1000000</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <f>SUM(F:F)</f>
-        <v>670000</v>
-      </c>
-      <c r="E30" s="7">
+        <v>982000</v>
+      </c>
+      <c r="E30" s="5">
         <f>C30-D30</f>
-        <v>330000</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+        <v>18000</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="7:8">
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="7:8">
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="7:8">
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="7:8">
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="7:8">
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="7:8">
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="7:8">
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="7:8">
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="7:8">
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="7:8">
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="7:8">
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="7:8">
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="7:8">
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="7:8">
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="7:8">
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="7:8">
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="7:8">
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -1046,18 +1076,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/Document/Tai chinh/Tai chinh.xlsx
+++ b/trunk/Document/Tai chinh/Tai chinh.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Bảng kê tình hình thu - chi của dự án</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Team buiding(Cafe)</t>
+  </si>
+  <si>
+    <t>27/9/2010</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -231,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +535,7 @@
   <dimension ref="B4:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,14 +641,24 @@
       <c r="H11" s="4">
         <v>40452</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="I11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="M11" s="5">
+        <v>100000</v>
+      </c>
       <c r="N11" s="5">
         <f t="shared" ref="N11:N25" si="0">SUM(I11:M11)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -742,10 +758,16 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>175000</v>
+      </c>
       <c r="H16" s="4">
         <v>40603</v>
       </c>
@@ -923,16 +945,16 @@
     </row>
     <row r="26" spans="2:14">
       <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:14">
       <c r="C27" s="7"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
@@ -962,15 +984,15 @@
     <row r="30" spans="2:14">
       <c r="C30" s="5">
         <f>SUM(N:N)</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D30" s="5">
         <f>SUM(F:F)</f>
-        <v>982000</v>
+        <v>1157000</v>
       </c>
       <c r="E30" s="5">
         <f>C30-D30</f>
-        <v>18000</v>
+        <v>343000</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1057,6 +1079,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1069,13 +1098,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
